--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="08-1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="08-1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="08-2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="08-3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="08-4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,8 +49,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,14 +419,224 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>مدرسة معيذر الابتدائية للبنين</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>أسماء الطلاب</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>التقييم الرئيسي</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>ابراهيم حمدان عبدالله العجمي</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>104.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>ابراهيم خالد احمد عثمان</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>97.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>ابراهيم محمد حسن الصويص</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>104.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>تركى ناشى صالح مبارك التركى</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>حمد جمال جاسم محمد الباكر</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>83.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>زايد محمد جول حاجى خان</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>81.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>سلطان جمعان بشير على الاحمد</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>محمود احمد ابراهيم محمد مرعى</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>مشعل سعيد صالح راشد السيابي</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>يوسف حسن طاهر محمد</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>103.5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -432,23 +647,816 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>الرحمن الرحيم!</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>مدرسة معيذر الابتدائية للبنين</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>أسماء الطلاب</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>التقييم الرئيسي</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>اسامه ابوبكر ابوالفتوح محمد</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>اسامه عارف محمد احمد الاسد</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>حسن خليل محمد حجاب</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>86.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>حسين عبدالرحمن حسين عبدالرحمن البدوي</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>زياد محمد</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>سالم خالد محمود يوسف المحمود</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>ضياء مصطفى ابراهيم ابوشعيره</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>عبدالرحمن صالح عبده اليهرى اليافعى</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>87.0</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>مدرسة معيذر الابتدائية للبنين</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>أسماء الطلاب</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>التقييم الرئيسي</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>صالح عثمان صالح جميل خويدم</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>صالح نورحسين</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>102.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>عبدالجليل حكمان الدين</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>عبدالرحمن رائد خليل شاكر العرعير</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>عبدالرحمن فراس السويداني</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>99.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>عبدالرحمن محمد ابوبكر عبدالله</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>103.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>عزالدين بخيت</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>على دياب عبدالسلام على</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>فهد احمد محمد عبدالله البلوشى</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>فيصل ايوب خان</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>فيصل عبداللة علي عبدالرب اليزيدي</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>مالك احمد حامد المحارمه</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>ماهر فايز صوقار</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>محمد حسين زكى على محمد</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>85.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>محمدالحسن ميسرة محمد الحسن الحسين</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>مدرسة معيذر الابتدائية للبنين</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>م</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>أسماء الطلاب</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>التقييم الرئيسي</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>عبدالرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>92.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>عبدالله احمد قاسم اليهري</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>عبدالله خليفه عبدالله خليفه سالم</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>عبدالله رفيق فضل موسى شرير</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>عبدالله سند صالح ناجى صالح</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>عبيدة عامر محمد محمود غرابيه</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>103.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>عمادالدين رضا سليمان سالم قطب</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>عمران مير بهادور</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>كمال مروان خليل شاكر العرعير</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>محمد اشرف حسين محمد حبيش</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>محمد محسن على شايف اليافعى</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>مصطفى عامر انور امين مصطفى</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>مؤمن علاءالدين ميرغني خيرالله</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>يحيى داود فتحي الجعبه</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>يمان نبيل بدران</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -96,7 +98,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
